--- a/_doc/AUTOSAR_Methodology_ETAS.xlsx
+++ b/_doc/AUTOSAR_Methodology_ETAS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace_Windows_1\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A1A60-204B-4E13-A2A0-8F6B6D343517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E842702A-10F6-48FC-9895-E1BDB0D2E378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{80BDC4B7-82B8-4544-83F1-4D7625B07C66}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{80BDC4B7-82B8-4544-83F1-4D7625B07C66}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$F$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$E$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="369">
   <si>
     <t>Step</t>
   </si>
@@ -1119,6 +1119,33 @@
   </si>
   <si>
     <t>Blocked</t>
+  </si>
+  <si>
+    <t>Real ECU</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>Use latest real project DBC</t>
+  </si>
+  <si>
+    <t>Refer back again: OS generation for Real ECU</t>
+  </si>
+  <si>
+    <t>Refer confluence "How to Create a Cdd SWC to access MCAL Module"</t>
+  </si>
+  <si>
+    <t>How to configure DCM UDS with the DEXT Editor</t>
+  </si>
+  <si>
+    <t>More details to follow later.</t>
+  </si>
+  <si>
+    <t>Revisit for folder structure</t>
+  </si>
+  <si>
+    <t>Revisit on need basis</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1234,11 +1261,57 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1613,26 +1686,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -1663,21 +1737,23 @@
       <c r="D2" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>235</v>
       </c>
@@ -1690,15 +1766,17 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>236</v>
       </c>
@@ -1711,15 +1789,17 @@
       <c r="D5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>2</v>
@@ -1730,13 +1810,15 @@
       <c r="D6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="H6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>237</v>
       </c>
@@ -1749,15 +1831,15 @@
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+      <c r="Q7" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>238</v>
       </c>
@@ -1770,12 +1852,12 @@
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>239</v>
       </c>
@@ -1788,12 +1870,12 @@
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>240</v>
       </c>
@@ -1806,12 +1888,12 @@
       <c r="D10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>241</v>
       </c>
@@ -1824,12 +1906,12 @@
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>242</v>
       </c>
@@ -1842,12 +1924,12 @@
       <c r="D12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>243</v>
       </c>
@@ -1860,12 +1942,12 @@
       <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>244</v>
       </c>
@@ -1878,12 +1960,12 @@
       <c r="D14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>245</v>
       </c>
@@ -1896,12 +1978,12 @@
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>246</v>
       </c>
@@ -1914,12 +1996,12 @@
       <c r="D16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>247</v>
       </c>
@@ -1932,12 +2014,12 @@
       <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>248</v>
       </c>
@@ -1950,12 +2032,12 @@
       <c r="D18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>249</v>
       </c>
@@ -1968,12 +2050,12 @@
       <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>250</v>
       </c>
@@ -1986,12 +2068,12 @@
       <c r="D20" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>251</v>
       </c>
@@ -2004,12 +2086,12 @@
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>252</v>
       </c>
@@ -2022,12 +2104,12 @@
       <c r="D22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>253</v>
       </c>
@@ -2040,12 +2122,12 @@
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>254</v>
       </c>
@@ -2058,12 +2140,12 @@
       <c r="D24" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>255</v>
       </c>
@@ -2076,12 +2158,12 @@
       <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>256</v>
       </c>
@@ -2094,12 +2176,12 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>257</v>
       </c>
@@ -2112,12 +2194,12 @@
       <c r="D27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>258</v>
       </c>
@@ -2130,12 +2212,12 @@
       <c r="D28" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>2</v>
@@ -2146,7 +2228,9 @@
       <c r="D29" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2162,9 +2246,11 @@
       <c r="D30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="1" t="s">
-        <v>357</v>
+      <c r="E30" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2180,9 +2266,11 @@
       <c r="D31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="1" t="s">
-        <v>357</v>
+      <c r="E31" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2198,10 +2286,10 @@
       <c r="D32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E32" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2216,10 +2304,10 @@
       <c r="D33" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E33" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -2234,10 +2322,10 @@
       <c r="D34" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E34" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -2252,10 +2340,10 @@
       <c r="D35" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -2270,10 +2358,10 @@
       <c r="D36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
@@ -2288,10 +2376,10 @@
       <c r="D37" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -2306,9 +2394,11 @@
       <c r="D38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="1" t="s">
-        <v>357</v>
+      <c r="E38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2324,9 +2414,11 @@
       <c r="D39" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="1" t="s">
-        <v>357</v>
+      <c r="E39" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
@@ -2343,7 +2435,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>269</v>
       </c>
@@ -2356,12 +2448,12 @@
       <c r="D41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>270</v>
       </c>
@@ -2374,12 +2466,12 @@
       <c r="D42" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>271</v>
       </c>
@@ -2392,12 +2484,12 @@
       <c r="D43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>272</v>
       </c>
@@ -2410,12 +2502,12 @@
       <c r="D44" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>273</v>
       </c>
@@ -2428,12 +2520,12 @@
       <c r="D45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>274</v>
       </c>
@@ -2446,12 +2538,12 @@
       <c r="D46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>275</v>
       </c>
@@ -2464,12 +2556,12 @@
       <c r="D47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>276</v>
       </c>
@@ -2482,12 +2574,12 @@
       <c r="D48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>277</v>
       </c>
@@ -2500,12 +2592,12 @@
       <c r="D49" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>278</v>
       </c>
@@ -2518,12 +2610,12 @@
       <c r="D50" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>279</v>
       </c>
@@ -2536,12 +2628,12 @@
       <c r="D51" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>280</v>
       </c>
@@ -2554,12 +2646,12 @@
       <c r="D52" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>281</v>
       </c>
@@ -2572,12 +2664,12 @@
       <c r="D53" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>282</v>
       </c>
@@ -2590,12 +2682,12 @@
       <c r="D54" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>283</v>
       </c>
@@ -2608,12 +2700,12 @@
       <c r="D55" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>284</v>
       </c>
@@ -2626,12 +2718,12 @@
       <c r="D56" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>2</v>
@@ -2658,10 +2750,10 @@
       <c r="D58" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E58" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -2676,10 +2768,10 @@
       <c r="D59" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
@@ -2694,10 +2786,10 @@
       <c r="D60" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E60" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
@@ -2712,10 +2804,10 @@
       <c r="D61" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E61" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
@@ -2730,10 +2822,10 @@
       <c r="D62" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E62" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
@@ -2748,10 +2840,10 @@
       <c r="D63" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E63" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
@@ -2766,10 +2858,10 @@
       <c r="D64" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
@@ -2784,10 +2876,10 @@
       <c r="D65" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E65" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
@@ -2802,10 +2894,10 @@
       <c r="D66" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E66" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
@@ -2820,10 +2912,10 @@
       <c r="D67" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
@@ -2838,10 +2930,10 @@
       <c r="D68" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
@@ -2870,10 +2962,10 @@
       <c r="D70" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E70" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
@@ -2888,10 +2980,10 @@
       <c r="D71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E71" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
@@ -2906,10 +2998,10 @@
       <c r="D72" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E72" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
@@ -2924,10 +3016,10 @@
       <c r="D73" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E73" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
@@ -2942,10 +3034,10 @@
       <c r="D74" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E74" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
@@ -2960,10 +3052,10 @@
       <c r="D75" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E75" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
@@ -2978,10 +3070,10 @@
       <c r="D76" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
@@ -2996,10 +3088,10 @@
       <c r="D77" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
@@ -3014,10 +3106,10 @@
       <c r="D78" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E78" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
@@ -3032,10 +3124,10 @@
       <c r="D79" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
@@ -3050,10 +3142,10 @@
       <c r="D80" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E80" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
@@ -3068,10 +3160,10 @@
       <c r="D81" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E81" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
@@ -3086,10 +3178,10 @@
       <c r="D82" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
@@ -3104,10 +3196,10 @@
       <c r="D83" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E83" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
@@ -3122,10 +3214,10 @@
       <c r="D84" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E84" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
@@ -3154,10 +3246,10 @@
       <c r="D86" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E86" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
@@ -3172,10 +3264,10 @@
       <c r="D87" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E87" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -3190,10 +3282,10 @@
       <c r="D88" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
@@ -3208,10 +3300,10 @@
       <c r="D89" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E89" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
@@ -3226,10 +3318,10 @@
       <c r="D90" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E90" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
@@ -3244,10 +3336,10 @@
       <c r="D91" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E91" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
@@ -3262,10 +3354,10 @@
       <c r="D92" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -3280,10 +3372,10 @@
       <c r="D93" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
@@ -3298,10 +3390,10 @@
       <c r="D94" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E94" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
@@ -3316,10 +3408,10 @@
       <c r="D95" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E95" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
@@ -3334,10 +3426,10 @@
       <c r="D96" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E96" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
@@ -3352,10 +3444,10 @@
       <c r="D97" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
@@ -3370,10 +3462,10 @@
       <c r="D98" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E98" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
@@ -3388,10 +3480,10 @@
       <c r="D99" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
@@ -3406,10 +3498,10 @@
       <c r="D100" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E100" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -3424,10 +3516,10 @@
       <c r="D101" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E101" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
@@ -3442,10 +3534,10 @@
       <c r="D102" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E102" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
@@ -3460,10 +3552,10 @@
       <c r="D103" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -3478,10 +3570,10 @@
       <c r="D104" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
@@ -3496,10 +3588,10 @@
       <c r="D105" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
@@ -3514,10 +3606,10 @@
       <c r="D106" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
@@ -3532,10 +3624,10 @@
       <c r="D107" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E107" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
@@ -3550,10 +3642,10 @@
       <c r="D108" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
@@ -3568,10 +3660,10 @@
       <c r="D109" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E109" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
@@ -3600,10 +3692,10 @@
       <c r="D111" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E111" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
@@ -3618,10 +3710,10 @@
       <c r="D112" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
@@ -3636,10 +3728,10 @@
       <c r="D113" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E113" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
@@ -3654,9 +3746,11 @@
       <c r="D114" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="1" t="s">
-        <v>357</v>
+      <c r="E114" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3672,10 +3766,10 @@
       <c r="D115" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
@@ -3690,9 +3784,11 @@
       <c r="D116" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="1" t="s">
-        <v>357</v>
+      <c r="E116" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
@@ -3722,10 +3818,10 @@
       <c r="D118" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E118" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
@@ -3740,10 +3836,10 @@
       <c r="D119" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
@@ -3758,10 +3854,10 @@
       <c r="D120" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E120" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
@@ -3776,10 +3872,10 @@
       <c r="D121" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E121" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
@@ -3794,10 +3890,10 @@
       <c r="D122" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E122" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
@@ -3812,10 +3908,10 @@
       <c r="D123" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E123" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
@@ -3830,10 +3926,10 @@
       <c r="D124" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E124" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
@@ -3848,10 +3944,10 @@
       <c r="D125" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E125" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
@@ -3866,10 +3962,10 @@
       <c r="D126" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E126" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
@@ -3884,10 +3980,10 @@
       <c r="D127" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E127" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
@@ -3902,10 +3998,10 @@
       <c r="D128" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E128" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
@@ -3920,10 +4016,10 @@
       <c r="D129" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E129" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
@@ -3938,10 +4034,10 @@
       <c r="D130" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E130" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
@@ -3956,10 +4052,10 @@
       <c r="D131" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="E131" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
@@ -3983,30 +4079,77 @@
       <c r="D133" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
+      <c r="E133" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+    </row>
+    <row r="135" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B1:F133" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
+  <autoFilter ref="B1:E133" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F133">
+  <conditionalFormatting sqref="K3:O135 E3:F135">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>$Q$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>$Q$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>$Q$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>$Q$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>$H$7</formula>
+      <formula>$Q$7</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>$H$5</formula>
+      <formula>$Q$5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>$H$4</formula>
+      <formula>$Q$4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>$H$3</formula>
+      <formula>$Q$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F133" xr:uid="{75E719CC-4D80-44E6-944F-52714462F59B}">
-      <formula1>$H$3:$H$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E135" xr:uid="{75E719CC-4D80-44E6-944F-52714462F59B}">
+      <formula1>$Q$3:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_doc/AUTOSAR_Methodology_ETAS.xlsx
+++ b/_doc/AUTOSAR_Methodology_ETAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace_Windows_1\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E842702A-10F6-48FC-9895-E1BDB0D2E378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7B83B-673C-41AF-B4FC-C279AB99553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{80BDC4B7-82B8-4544-83F1-4D7625B07C66}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$E$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="373">
   <si>
     <t>Step</t>
   </si>
@@ -506,9 +506,6 @@
     <t>CreateEcuExtract</t>
   </si>
   <si>
-    <t>Confluence03_EcuConfiguration_02</t>
-  </si>
-  <si>
     <t>ConfigureEcuCValueCollection</t>
   </si>
   <si>
@@ -1146,13 +1143,28 @@
   </si>
   <si>
     <t>Revisit on need basis</t>
+  </si>
+  <si>
+    <t>Confluence03_EcuConfiguration_02_01</t>
+  </si>
+  <si>
+    <t>Confluence03_EcuConfiguration_04_ConfigureRTE_01</t>
+  </si>
+  <si>
+    <t>CreateOsTaskAsw</t>
+  </si>
+  <si>
+    <t>Confluence03_EcuConfiguration_04_ConfigureRTE_02</t>
+  </si>
+  <si>
+    <t>https://rtahotline.etas.com/jira/servicedesk/customer/portal/10/RHEU-2624</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,6 +1197,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1228,10 +1248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1263,55 +1284,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -1686,23 +1666,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1735,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -1747,18 +1727,18 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -1767,21 +1747,21 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>119</v>
@@ -1790,13 +1770,13 @@
         <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
@@ -1808,22 +1788,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F6" s="9"/>
       <c r="Q6" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -1832,19 +1812,19 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7"/>
       <c r="Q7" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>121</v>
@@ -1853,16 +1833,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
@@ -1871,16 +1851,16 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>122</v>
@@ -1889,16 +1869,16 @@
         <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
@@ -1907,16 +1887,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>124</v>
@@ -1925,16 +1905,16 @@
         <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>15</v>
@@ -1943,16 +1923,16 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>126</v>
@@ -1961,16 +1941,16 @@
         <v>127</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
@@ -1979,16 +1959,16 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>128</v>
@@ -1997,16 +1977,16 @@
         <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
@@ -2015,16 +1995,16 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>130</v>
@@ -2033,16 +2013,16 @@
         <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>21</v>
@@ -2051,16 +2031,16 @@
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>132</v>
@@ -2069,16 +2049,16 @@
         <v>133</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
@@ -2087,16 +2067,16 @@
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>134</v>
@@ -2105,16 +2085,16 @@
         <v>135</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>25</v>
@@ -2123,16 +2103,16 @@
         <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>136</v>
@@ -2141,16 +2121,16 @@
         <v>137</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>27</v>
@@ -2159,16 +2139,16 @@
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>138</v>
@@ -2177,16 +2157,16 @@
         <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>29</v>
@@ -2195,16 +2175,16 @@
         <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>139</v>
@@ -2213,7 +2193,7 @@
         <v>140</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -2226,19 +2206,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>31</v>
@@ -2247,18 +2227,18 @@
         <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>141</v>
@@ -2267,18 +2247,18 @@
         <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>33</v>
@@ -2287,16 +2267,16 @@
         <v>34</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>143</v>
@@ -2305,16 +2285,16 @@
         <v>144</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>145</v>
@@ -2323,16 +2303,16 @@
         <v>146</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>147</v>
@@ -2341,16 +2321,16 @@
         <v>148</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>35</v>
@@ -2359,16 +2339,16 @@
         <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>149</v>
@@ -2377,16 +2357,16 @@
         <v>150</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
@@ -2395,18 +2375,18 @@
         <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>151</v>
@@ -2415,10 +2395,10 @@
         <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
@@ -2430,17 +2410,17 @@
         <v>4</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>39</v>
@@ -2455,10 +2435,10 @@
     </row>
     <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>153</v>
@@ -2472,35 +2452,35 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>42</v>
+      <c r="A43" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>155</v>
+        <v>369</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>156</v>
+        <v>370</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>357</v>
@@ -2508,1632 +2488,1658 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>44</v>
+      <c r="A45" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="47" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="12" t="s">
+      <c r="B49" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="13" t="s">
+      <c r="E50" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>358</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="14">
-        <v>5</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>285</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F59" s="8"/>
+    <row r="59" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="14">
+        <v>5</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9" t="s">
+      <c r="E70" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C71" s="11">
         <v>6</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F71" s="7"/>
+      <c r="D71" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="11">
-        <v>7</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+    <row r="85" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F87" s="7"/>
+    <row r="87" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="11">
+        <v>7</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>158</v>
+      <c r="A94" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F94" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>102</v>
+      <c r="A98" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F98" s="7"/>
+        <v>356</v>
+      </c>
+      <c r="F98" s="8"/>
     </row>
     <row r="99" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="11">
-        <v>8</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
+    <row r="110" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F112" s="7"/>
+    <row r="112" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="11">
+        <v>8</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>363</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="11">
-        <v>9</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="11">
+        <v>9</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C119" s="12" t="s">
+      <c r="B121" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F121" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="11">
+        <v>10</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9" t="s">
+      <c r="C135" s="6"/>
+      <c r="D135" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="11">
-        <v>10</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="15">
+      <c r="C136" s="15">
         <v>11</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D136" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+    </row>
+    <row r="137" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-    </row>
-    <row r="135" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="8" t="s">
+      <c r="B137" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" collapsed="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="138" spans="1:6" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B1:E133" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
+  <autoFilter ref="B1:E135" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K3:O135 E3:F135">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>$Q$7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$Q$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>$Q$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>$Q$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2 E3:F137 K3:O137">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$Q$7</formula>
     </cfRule>
@@ -4148,10 +4154,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E135" xr:uid="{75E719CC-4D80-44E6-944F-52714462F59B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E137" xr:uid="{75E719CC-4D80-44E6-944F-52714462F59B}">
       <formula1>$Q$3:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F46" r:id="rId1" xr:uid="{2D977290-FD98-4EC8-BEEF-06ECBB78EBDF}"/>
+    <hyperlink ref="F51" r:id="rId2" xr:uid="{52F4262A-5F92-4F86-BA90-76B4DC70F04D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_doc/AUTOSAR_Methodology_ETAS.xlsx
+++ b/_doc/AUTOSAR_Methodology_ETAS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace_Windows_1\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7B83B-673C-41AF-B4FC-C279AB99553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95021377-B03B-458A-9EFD-903010426382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{80BDC4B7-82B8-4544-83F1-4D7625B07C66}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{80BDC4B7-82B8-4544-83F1-4D7625B07C66}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$E$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$E$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="377">
   <si>
     <t>Step</t>
   </si>
@@ -524,9 +524,6 @@
     <t>Confluence03_EcuConfiguration_05_ConfigureAndGenerateBsw_01</t>
   </si>
   <si>
-    <t>Configure</t>
-  </si>
-  <si>
     <t>Confluence03_EcuConfiguration_05_ConfigureAndGenerateBsw_02</t>
   </si>
   <si>
@@ -1158,13 +1155,28 @@
   </si>
   <si>
     <t>https://rtahotline.etas.com/jira/servicedesk/customer/portal/10/RHEU-2624</t>
+  </si>
+  <si>
+    <t>GenerateEcuc</t>
+  </si>
+  <si>
+    <t>Revisit to map more needed signals to PDU's</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>Chapter-6: Configuration - Mode Management</t>
+  </si>
+  <si>
+    <t>OnHold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,6 +1217,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1252,7 +1278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1286,12 +1312,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1338,6 +1523,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1666,11 +1856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}">
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1715,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -1727,18 +1917,18 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -1747,21 +1937,21 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>119</v>
@@ -1770,13 +1960,13 @@
         <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
@@ -1788,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F6" s="9"/>
       <c r="Q6" s="1" t="s">
@@ -1800,10 +1990,10 @@
     </row>
     <row r="7" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -1812,19 +2002,19 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F7" s="7"/>
       <c r="Q7" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>121</v>
@@ -1833,16 +2023,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
@@ -1851,16 +2041,16 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>122</v>
@@ -1869,16 +2059,16 @@
         <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
@@ -1887,16 +2077,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>124</v>
@@ -1905,16 +2095,16 @@
         <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>15</v>
@@ -1923,16 +2113,16 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>126</v>
@@ -1941,16 +2131,16 @@
         <v>127</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
@@ -1959,16 +2149,16 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>128</v>
@@ -1977,16 +2167,16 @@
         <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
@@ -1995,16 +2185,16 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>130</v>
@@ -2013,16 +2203,16 @@
         <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>21</v>
@@ -2031,16 +2221,16 @@
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>132</v>
@@ -2049,16 +2239,16 @@
         <v>133</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
@@ -2067,16 +2257,16 @@
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>134</v>
@@ -2085,16 +2275,16 @@
         <v>135</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>25</v>
@@ -2103,16 +2293,16 @@
         <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>136</v>
@@ -2121,16 +2311,16 @@
         <v>137</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>27</v>
@@ -2139,16 +2329,16 @@
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>138</v>
@@ -2157,16 +2347,16 @@
         <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>29</v>
@@ -2175,16 +2365,16 @@
         <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>139</v>
@@ -2193,7 +2383,7 @@
         <v>140</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -2206,19 +2396,21 @@
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F29" s="9"/>
+        <v>354</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>31</v>
@@ -2227,18 +2419,18 @@
         <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>141</v>
@@ -2247,18 +2439,18 @@
         <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>33</v>
@@ -2267,16 +2459,16 @@
         <v>34</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>143</v>
@@ -2285,16 +2477,16 @@
         <v>144</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>145</v>
@@ -2303,16 +2495,16 @@
         <v>146</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>147</v>
@@ -2321,16 +2513,16 @@
         <v>148</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>35</v>
@@ -2339,16 +2531,16 @@
         <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>149</v>
@@ -2357,16 +2549,16 @@
         <v>150</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
@@ -2375,18 +2567,18 @@
         <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>151</v>
@@ -2395,10 +2587,10 @@
         <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
@@ -2410,17 +2602,19 @@
         <v>4</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>39</v>
@@ -2429,16 +2623,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>153</v>
@@ -2447,70 +2641,70 @@
         <v>154</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>370</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>41</v>
@@ -2519,42 +2713,44 @@
         <v>42</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F46" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E47" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="18" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>356</v>
@@ -2563,16 +2759,16 @@
     </row>
     <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>356</v>
@@ -2581,424 +2777,417 @@
     </row>
     <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>372</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>163</v>
+      <c r="C52" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>375</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F52" s="8"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="14">
+        <v>5</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
+      <c r="B63" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="14">
-        <v>5</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="11">
+      <c r="C72" s="11">
         <v>6</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>52</v>
+      <c r="D72" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>356</v>
@@ -3007,16 +3196,16 @@
     </row>
     <row r="74" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>356</v>
@@ -3025,16 +3214,16 @@
     </row>
     <row r="75" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>356</v>
@@ -3043,16 +3232,16 @@
     </row>
     <row r="76" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>356</v>
@@ -3061,16 +3250,16 @@
     </row>
     <row r="77" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>356</v>
@@ -3079,16 +3268,16 @@
     </row>
     <row r="78" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>356</v>
@@ -3097,16 +3286,16 @@
     </row>
     <row r="79" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>356</v>
@@ -3115,16 +3304,16 @@
     </row>
     <row r="80" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>356</v>
@@ -3133,16 +3322,16 @@
     </row>
     <row r="81" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>356</v>
@@ -3151,16 +3340,16 @@
     </row>
     <row r="82" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>356</v>
@@ -3169,16 +3358,16 @@
     </row>
     <row r="83" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>356</v>
@@ -3187,16 +3376,16 @@
     </row>
     <row r="84" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>356</v>
@@ -3205,16 +3394,16 @@
     </row>
     <row r="85" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>356</v>
@@ -3223,944 +3412,967 @@
     </row>
     <row r="86" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D87" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9" t="s">
+      <c r="E87" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C88" s="11">
         <v>7</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F88" s="7"/>
+      <c r="D88" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="B97" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="B98" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C98" s="13" t="s">
+      <c r="B99" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D99" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F99" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C111" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9" t="s">
+      <c r="E112" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C113" s="11">
         <v>8</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F113" s="7"/>
+      <c r="D113" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>362</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F117" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="118" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C118" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9" t="s">
+      <c r="E119" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C120" s="11">
         <v>9</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F120" s="7"/>
+      <c r="D120" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C121" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D122" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F122" s="8"/>
+        <v>355</v>
+      </c>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F132" s="8"/>
     </row>
     <row r="133" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="11">
+        <v>10</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9" t="s">
+      <c r="C136" s="6"/>
+      <c r="D136" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="11">
-        <v>10</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-      <c r="B136" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="15">
+      <c r="C137" s="15">
         <v>11</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D137" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+    </row>
+    <row r="138" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-    </row>
-    <row r="137" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="8" t="s">
+      <c r="B138" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F138" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" collapsed="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="139" spans="1:6" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B1:E135" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
+  <autoFilter ref="B1:E136" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E2 E3:F137 K3:O137">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2 K3:O138 E3:F138">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>$Q$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>$Q$5</formula>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>$Q$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>$Q$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$Q$3</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>$Q$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E137" xr:uid="{75E719CC-4D80-44E6-944F-52714462F59B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{75E719CC-4D80-44E6-944F-52714462F59B}">
       <formula1>$Q$3:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F46" r:id="rId1" xr:uid="{2D977290-FD98-4EC8-BEEF-06ECBB78EBDF}"/>
-    <hyperlink ref="F51" r:id="rId2" xr:uid="{52F4262A-5F92-4F86-BA90-76B4DC70F04D}"/>
+    <hyperlink ref="F47" r:id="rId2" xr:uid="{52F4262A-5F92-4F86-BA90-76B4DC70F04D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_doc/AUTOSAR_Methodology_ETAS.xlsx
+++ b/_doc/AUTOSAR_Methodology_ETAS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace_Windows_1\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95021377-B03B-458A-9EFD-903010426382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195637B6-1F04-4B37-9BCD-7D8991683C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{80BDC4B7-82B8-4544-83F1-4D7625B07C66}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{80BDC4B7-82B8-4544-83F1-4D7625B07C66}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$E$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="379">
   <si>
     <t>Step</t>
   </si>
@@ -1170,6 +1170,12 @@
   </si>
   <si>
     <t>OnHold</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Configure CanTp</t>
   </si>
 </sst>
 </file>
@@ -1322,11 +1328,131 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1385,139 +1511,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1860,7 +1854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1911,8 +1905,11 @@
         <v>356</v>
       </c>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>233</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>234</v>
       </c>
@@ -1969,7 +1966,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>2</v>
@@ -1988,7 +1985,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>235</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>236</v>
       </c>
@@ -2027,7 +2024,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>237</v>
       </c>
@@ -2045,7 +2042,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>238</v>
       </c>
@@ -2063,7 +2060,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>239</v>
       </c>
@@ -2081,7 +2078,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>240</v>
       </c>
@@ -2099,7 +2096,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>241</v>
       </c>
@@ -2117,7 +2114,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>242</v>
       </c>
@@ -2135,7 +2132,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>243</v>
       </c>
@@ -2153,7 +2150,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>244</v>
       </c>
@@ -2171,7 +2168,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>245</v>
       </c>
@@ -2189,7 +2186,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>246</v>
       </c>
@@ -2207,7 +2204,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>247</v>
       </c>
@@ -2225,7 +2222,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>248</v>
       </c>
@@ -2243,7 +2240,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>249</v>
       </c>
@@ -2261,7 +2258,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>250</v>
       </c>
@@ -2279,7 +2276,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>251</v>
       </c>
@@ -2297,7 +2294,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>252</v>
       </c>
@@ -2315,7 +2312,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>253</v>
       </c>
@@ -2333,7 +2330,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>254</v>
       </c>
@@ -2351,7 +2348,7 @@
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>255</v>
       </c>
@@ -2369,7 +2366,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>256</v>
       </c>
@@ -2387,7 +2384,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>2</v>
@@ -2405,7 +2402,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>257</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>258</v>
       </c>
@@ -2445,7 +2442,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>259</v>
       </c>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>260</v>
       </c>
@@ -2481,7 +2478,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>261</v>
       </c>
@@ -2499,7 +2496,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>262</v>
       </c>
@@ -2517,7 +2514,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>263</v>
       </c>
@@ -2535,7 +2532,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>264</v>
       </c>
@@ -2553,7 +2550,7 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>265</v>
       </c>
@@ -2573,7 +2570,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>266</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
         <v>2</v>
@@ -2819,7 +2816,7 @@
         <v>375</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2836,7 +2833,7 @@
         <v>162</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F53" s="8"/>
     </row>
@@ -2848,10 +2845,10 @@
         <v>231</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>355</v>
@@ -2860,16 +2857,16 @@
     </row>
     <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>355</v>
@@ -2878,16 +2875,16 @@
     </row>
     <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>355</v>
@@ -2896,16 +2893,16 @@
     </row>
     <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>355</v>
@@ -2914,7 +2911,7 @@
     </row>
     <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>231</v>
@@ -2923,7 +2920,7 @@
         <v>169</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>355</v>
@@ -2932,66 +2929,66 @@
     </row>
     <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="13" t="s">
+      <c r="B60" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
+      <c r="E60" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C61" s="14">
         <v>5</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F61" s="8"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>355</v>
@@ -3000,16 +2997,16 @@
     </row>
     <row r="63" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>355</v>
@@ -3018,16 +3015,16 @@
     </row>
     <row r="64" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>355</v>
@@ -3036,16 +3033,16 @@
     </row>
     <row r="65" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>355</v>
@@ -3054,16 +3051,16 @@
     </row>
     <row r="66" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>355</v>
@@ -3072,16 +3069,16 @@
     </row>
     <row r="67" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>355</v>
@@ -3090,16 +3087,16 @@
     </row>
     <row r="68" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>355</v>
@@ -3108,16 +3105,16 @@
     </row>
     <row r="69" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>355</v>
@@ -3126,16 +3123,16 @@
     </row>
     <row r="70" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>355</v>
@@ -3144,613 +3141,613 @@
     </row>
     <row r="71" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" s="13" t="s">
+      <c r="B72" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9" t="s">
+      <c r="E72" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C73" s="11">
         <v>6</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D73" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="E73" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="B74" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="E74" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="B75" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="E75" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="B76" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="E76" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="12" t="s">
+      <c r="B77" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="E77" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" s="12" t="s">
+      <c r="B78" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="E78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C78" s="12" t="s">
+      <c r="B79" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="E79" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C79" s="12" t="s">
+      <c r="B80" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="E80" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" s="12" t="s">
+      <c r="B81" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="E81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C81" s="12" t="s">
+      <c r="B82" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="E82" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="B83" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="E83" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" s="12" t="s">
+      <c r="B84" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="E84" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" s="12" t="s">
+      <c r="B85" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="E85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" s="12" t="s">
+      <c r="B86" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D86" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="E86" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="B87" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D87" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="E87" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="12" t="s">
+      <c r="B88" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9" t="s">
+      <c r="E88" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C89" s="11">
         <v>7</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" s="12" t="s">
+      <c r="B90" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+      <c r="E90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C90" s="12" t="s">
+      <c r="B91" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="E91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C91" s="12" t="s">
+      <c r="B92" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+      <c r="E92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C92" s="12" t="s">
+      <c r="B93" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="E93" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="12" t="s">
+      <c r="B94" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="E94" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="12" t="s">
+      <c r="B95" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D95" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="E95" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="B96" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D96" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+      <c r="E96" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="B97" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D97" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="E97" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C97" s="13" t="s">
+      <c r="B98" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F97" s="8"/>
-    </row>
-    <row r="98" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="E98" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C98" s="12" t="s">
+      <c r="B99" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D99" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="E99" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="13" t="s">
+      <c r="B100" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="E100" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C100" s="12" t="s">
+      <c r="B101" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D101" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="E101" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C101" s="12" t="s">
+      <c r="B102" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+      <c r="E102" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C102" s="12" t="s">
+      <c r="B103" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+      <c r="E103" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C103" s="12" t="s">
+      <c r="B104" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="E104" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>232</v>
@@ -3759,210 +3756,210 @@
         <v>107</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="E106" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C106" s="12" t="s">
+      <c r="B107" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+      <c r="E107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C107" s="12" t="s">
+      <c r="B108" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D108" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+      <c r="E108" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C108" s="12" t="s">
+      <c r="B109" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D109" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="E109" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="12" t="s">
+      <c r="B110" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="E110" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" s="12" t="s">
+      <c r="B111" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="E111" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C111" s="12" t="s">
+      <c r="B112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+      <c r="E112" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C112" s="12" t="s">
+      <c r="B113" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9" t="s">
+      <c r="E113" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C114" s="11">
         <v>8</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D114" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-    </row>
-    <row r="114" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C114" s="12" t="s">
+      <c r="B115" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="E115" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="12" t="s">
+      <c r="B116" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D116" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="E116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>232</v>
@@ -3971,403 +3968,423 @@
         <v>107</v>
       </c>
       <c r="D117" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F117" s="7" t="s">
+      <c r="E118" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F118" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+    <row r="119" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C118" s="12" t="s">
+      <c r="B119" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="E119" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119" s="12" t="s">
+      <c r="B120" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F119" s="7" t="s">
+      <c r="E120" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9" t="s">
+    <row r="121" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C121" s="11">
         <v>9</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D121" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C121" s="12" t="s">
+      <c r="B122" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D122" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+      <c r="E122" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="12" t="s">
+      <c r="B123" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D123" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+      <c r="E123" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C123" s="13" t="s">
+      <c r="B124" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F123" s="8"/>
-    </row>
-    <row r="124" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="E124" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C124" s="13" t="s">
+      <c r="B125" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="E125" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C125" s="13" t="s">
+      <c r="B126" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D126" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+      <c r="E126" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C126" s="13" t="s">
+      <c r="B127" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D127" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+      <c r="E127" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C127" s="13" t="s">
+      <c r="B128" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D128" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="E128" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C128" s="13" t="s">
+      <c r="B129" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D129" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F128" s="8"/>
-    </row>
-    <row r="129" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+      <c r="E129" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C129" s="13" t="s">
+      <c r="B130" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D130" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F129" s="8"/>
-    </row>
-    <row r="130" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+      <c r="E130" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C130" s="13" t="s">
+      <c r="B131" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F130" s="8"/>
-    </row>
-    <row r="131" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+      <c r="E131" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C131" s="13" t="s">
+      <c r="B132" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D132" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
+      <c r="E132" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C132" s="13" t="s">
+      <c r="B133" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D133" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F132" s="8"/>
-    </row>
-    <row r="133" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+      <c r="E133" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C133" s="13" t="s">
+      <c r="B134" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
+      <c r="E134" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C134" s="13" t="s">
+      <c r="B135" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F134" s="8"/>
-    </row>
-    <row r="135" spans="1:6" s="5" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9" t="s">
+      <c r="E135" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C136" s="11">
         <v>10</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D136" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="1" t="s">
+      <c r="C137" s="6"/>
+      <c r="D137" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="15" t="s">
+      <c r="E137" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="15">
+      <c r="C138" s="15">
         <v>11</v>
       </c>
-      <c r="D137" s="15" t="s">
+      <c r="D138" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-    </row>
-    <row r="138" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+    </row>
+    <row r="139" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="8" t="s">
+      <c r="B139" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F138" s="8" t="s">
+      <c r="E139" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="139" spans="1:6" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B1:E136" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
+  <autoFilter ref="B1:E137" xr:uid="{4F426CBD-26CE-4CAC-98E3-0594A259463D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E2 K3:O138 E3:F138">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>$Q$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>$Q$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2 E3:F139 K3:O139">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$Q$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$Q$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>$Q$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>$Q$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>$Q$5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{75E719CC-4D80-44E6-944F-52714462F59B}">
-      <formula1>$Q$3:$Q$7</formula1>
+      <formula1>$Q$2:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4375,5 +4392,6 @@
     <hyperlink ref="F47" r:id="rId2" xr:uid="{52F4262A-5F92-4F86-BA90-76B4DC70F04D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>